--- a/ADVGame/DesignerConfigs/Datas/__tables__.xlsx
+++ b/ADVGame/DesignerConfigs/Datas/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="22410" windowHeight="10980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="69">
   <si>
     <t>##var</t>
   </si>
@@ -225,6 +225,15 @@
   </si>
   <si>
     <t>LoadingTitleSprite.xlsx</t>
+  </si>
+  <si>
+    <t>TBStoryline</t>
+  </si>
+  <si>
+    <t>ConfStoryline</t>
+  </si>
+  <si>
+    <t>Storyline.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1166,10 +1175,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="14.25"/>
@@ -1222,7 +1231,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:12">
+    <row r="2" s="1" customFormat="1" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1257,7 +1266,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:12">
+    <row r="3" s="1" customFormat="1" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -1283,7 +1292,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" customFormat="1" spans="2:6">
+    <row r="4" customFormat="1" spans="1:13">
       <c r="B4" t="s">
         <v>31</v>
       </c>
@@ -1300,7 +1309,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" customFormat="1" spans="2:5">
+    <row r="5" customFormat="1" spans="1:13">
       <c r="B5" t="s">
         <v>35</v>
       </c>
@@ -1314,7 +1323,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" customFormat="1" spans="2:6">
+    <row r="6" customFormat="1" spans="1:13">
       <c r="B6" t="s">
         <v>38</v>
       </c>
@@ -1331,7 +1340,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="1:13">
       <c r="B7" t="s">
         <v>42</v>
       </c>
@@ -1348,7 +1357,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="1:13">
       <c r="B8" t="s">
         <v>45</v>
       </c>
@@ -1365,7 +1374,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="2:6">
+    <row r="9" spans="1:13">
       <c r="B9" t="s">
         <v>48</v>
       </c>
@@ -1382,7 +1391,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="2:6">
+    <row r="10" spans="1:13">
       <c r="B10" t="s">
         <v>51</v>
       </c>
@@ -1399,7 +1408,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="2:6">
+    <row r="11" spans="1:13">
       <c r="B11" t="s">
         <v>54</v>
       </c>
@@ -1416,7 +1425,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="2:6">
+    <row r="12" spans="1:13">
       <c r="B12" t="s">
         <v>57</v>
       </c>
@@ -1433,7 +1442,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="2:6">
+    <row r="13" spans="1:13">
       <c r="B13" t="s">
         <v>60</v>
       </c>
@@ -1450,7 +1459,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="2:6">
+    <row r="14" spans="1:13">
       <c r="B14" t="s">
         <v>63</v>
       </c>
@@ -1464,6 +1473,23 @@
         <v>65</v>
       </c>
       <c r="F14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="B15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" t="s">
         <v>34</v>
       </c>
     </row>

--- a/ADVGame/DesignerConfigs/Datas/__tables__.xlsx
+++ b/ADVGame/DesignerConfigs/Datas/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22410" windowHeight="10980"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="57">
   <si>
     <t>##var</t>
   </si>
@@ -164,15 +164,6 @@
     <t>Guides.xlsx</t>
   </si>
   <si>
-    <t>TBLevel</t>
-  </si>
-  <si>
-    <t>ConfLevel</t>
-  </si>
-  <si>
-    <t>Level.xlsx</t>
-  </si>
-  <si>
     <t>TBPayRegion</t>
   </si>
   <si>
@@ -189,33 +180,6 @@
   </si>
   <si>
     <t>PayChannel.xlsx</t>
-  </si>
-  <si>
-    <t>TBProp</t>
-  </si>
-  <si>
-    <t>ConfProp</t>
-  </si>
-  <si>
-    <t>Prop.xlsx</t>
-  </si>
-  <si>
-    <t>TBLuckySpin</t>
-  </si>
-  <si>
-    <t>ConfLuckySpin</t>
-  </si>
-  <si>
-    <t>LuckySpin.xlsx</t>
-  </si>
-  <si>
-    <t>TBUserLevel</t>
-  </si>
-  <si>
-    <t>ConfUserLevel</t>
-  </si>
-  <si>
-    <t>UserLevel.xlsx</t>
   </si>
   <si>
     <t>TBLoadingTitleSprite</t>
@@ -1175,10 +1139,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="14.25"/>
@@ -1425,74 +1389,6 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
-      <c r="B12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" t="b">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>59</v>
-      </c>
-      <c r="F12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="B13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" t="b">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
-        <v>62</v>
-      </c>
-      <c r="F13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="B14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" t="b">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="B15" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" t="b">
-        <v>1</v>
-      </c>
-      <c r="E15" t="s">
-        <v>68</v>
-      </c>
-      <c r="F15" t="s">
-        <v>34</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
